--- a/binance test.xlsx
+++ b/binance test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naru\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE618A3D-1713-4A1B-9F4F-0DC72F6BFF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58189F88-7874-4C53-A017-773A849A4861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -370,30 +370,16 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Hello@gmail.com</t>
-  </si>
-  <si>
-    <t>Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,17 +402,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,17 +721,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
+      <c r="A2" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>113</v>
@@ -756,16 +739,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>113</v>
@@ -773,13 +756,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -790,16 +773,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>113</v>
@@ -807,13 +790,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -824,16 +807,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>113</v>
@@ -841,13 +824,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -858,13 +841,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
@@ -875,16 +858,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>113</v>
@@ -892,16 +875,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>113</v>
@@ -909,16 +892,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
         <v>113</v>
@@ -926,16 +909,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>113</v>
@@ -943,16 +926,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>113</v>
@@ -960,16 +943,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
@@ -977,16 +960,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>113</v>
@@ -994,16 +977,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>113</v>
@@ -1011,16 +994,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -1028,13 +1011,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -1045,13 +1028,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -1062,16 +1045,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>113</v>
@@ -1079,16 +1062,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>113</v>
@@ -1096,16 +1079,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>113</v>
@@ -1113,16 +1096,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
         <v>113</v>
@@ -1130,16 +1113,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>113</v>
@@ -1147,16 +1130,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>113</v>
@@ -1164,16 +1147,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>113</v>
@@ -1181,16 +1164,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>113</v>
@@ -1198,16 +1181,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
         <v>113</v>
@@ -1215,16 +1198,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
         <v>113</v>
@@ -1232,43 +1215,23 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9644E3D9-7A61-480F-BBCF-3FC1A0DB5263}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>